--- a/biology/Botanique/Cacalia/Cacalia.xlsx
+++ b/biology/Botanique/Cacalia/Cacalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cacalia est un genre de plante à fleurs de la la famille des Asteraceae qui est maintenant nomen rejiciendum (nom rejeté) par l'IPNI. Ses espèces se trouvent maintenant réparties dans différents genres[1],[2],[3],[4] appertenant à la tribu des Senecioneae:
+Cacalia est un genre de plante à fleurs de la la famille des Asteraceae qui est maintenant nomen rejiciendum (nom rejeté) par l'IPNI. Ses espèces se trouvent maintenant réparties dans différents genres appertenant à la tribu des Senecioneae:
 Adenostyles
 Adenostyles alliariae (Gouan) A. Kern.
 Cacalia alliariae Gouan
@@ -511,11 +523,11 @@
 Cacalia tuberosa Nutt.
 Arnoglossum sulcatum (Fernald) H.Rob
 Cacalia sulcata Fern.
-Parasenecio[5]
+Parasenecio
 Parasenecio delphiniifolius (Siebold &amp; Zucc.) H.Koyama
-Cacalia delphiniifolia Siebold &amp; Zucc[6].
-Parasenecio forrestii W.W.Sm. &amp; Small[7]
-Cacalia forrestii (W.W.Sm. &amp; Small) Hand.-Mazz[8].</t>
+Cacalia delphiniifolia Siebold &amp; Zucc.
+Parasenecio forrestii W.W.Sm. &amp; Small
+Cacalia forrestii (W.W.Sm. &amp; Small) Hand.-Mazz.</t>
         </is>
       </c>
     </row>
